--- a/Test_RS.xlsx
+++ b/Test_RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc95312a4f42457/Documents/Biorobotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{03538EED-465F-497F-AC65-DD0A8368C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC342A29-5966-43DB-BF7D-6C4A33F7C0E9}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{03538EED-465F-497F-AC65-DD0A8368C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E474B53-478C-49EB-A829-4AE4F5494DC2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8F0DF5D-EA24-4CA0-83E7-B090BC56A625}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B8F0DF5D-EA24-4CA0-83E7-B090BC56A625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
   <si>
     <t>Available</t>
   </si>
@@ -109,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49231815-E012-4D8B-BF00-4CA05C08A712}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +579,292 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
